--- a/example/variables.xlsx
+++ b/example/variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm/Projects/thierry/analytics-test/src/assets/scripts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm/GitHub/epicagency/snitchy-loader/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622DC638-E93E-1649-B9DB-1556A926E198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D53A9-FA46-6740-8251-0CD462DA54FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{D3F33F63-55B0-9B40-98A2-7C728CAADFC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{D3F33F63-55B0-9B40-98A2-7C728CAADFC9}"/>
   </bookViews>
   <sheets>
     <sheet name="pages" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -34,54 +34,15 @@
     <t>pagePath</t>
   </si>
   <si>
-    <t>altPagePath</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
     <t>$tagTitle</t>
   </si>
   <si>
     <t>$url</t>
   </si>
   <si>
-    <t>$valUrl</t>
-  </si>
-  <si>
-    <t>$attrLang</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>page</t>
   </si>
   <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>baz</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>overriden</t>
-  </si>
-  <si>
-    <t>testData</t>
-  </si>
-  <si>
-    <t>$attrDataTestLayer</t>
-  </si>
-  <si>
     <t>products</t>
   </si>
   <si>
@@ -124,42 +85,9 @@
     <t>event</t>
   </si>
   <si>
-    <t>searchedAttrByEl</t>
-  </si>
-  <si>
-    <t>searchedTextContentByEl</t>
-  </si>
-  <si>
-    <t>searchedValueByRef</t>
-  </si>
-  <si>
-    <t>searchedTextContentByRef</t>
-  </si>
-  <si>
-    <t>programSearch</t>
-  </si>
-  <si>
-    <t>$elAction</t>
-  </si>
-  <si>
-    <t>$elTextContent</t>
-  </si>
-  <si>
-    <t>cta</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
-    <t>eventCategory</t>
-  </si>
-  <si>
-    <t>eventAction</t>
-  </si>
-  <si>
-    <t>eventLabel</t>
-  </si>
-  <si>
     <t>eventValue</t>
   </si>
   <si>
@@ -169,82 +97,31 @@
     <t>formSubmit</t>
   </si>
   <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
     <t>formError</t>
   </si>
   <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>clickWhatever</t>
-  </si>
-  <si>
-    <t>hover</t>
-  </si>
-  <si>
-    <t>noTrigger</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>Call To Action</t>
-  </si>
-  <si>
-    <t>$elDataAction</t>
-  </si>
-  <si>
-    <t>Call To Whatever</t>
-  </si>
-  <si>
-    <t>mouseenter</t>
-  </si>
-  <si>
-    <t>Call To MouseEnter</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>manualClick</t>
-  </si>
-  <si>
-    <t>socialInt</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>$elDataNetwork</t>
-  </si>
-  <si>
-    <t>$elHref</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>$refLabelTextContent</t>
-  </si>
-  <si>
-    <t>$refSubmitTextContent</t>
-  </si>
-  <si>
-    <t>$refKeywordsValue</t>
-  </si>
-  <si>
-    <t>$refPseudoValue</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>somethingGlobal</t>
+  </si>
+  <si>
+    <t>somethingSpecific</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>$refInputValue</t>
   </si>
 </sst>
 </file>
@@ -633,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860E35F6-087B-0B43-B463-367669A09B1D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,30 +524,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -679,93 +556,57 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B383B-9945-264D-8764-8A92F8BE5F38}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -791,380 +632,103 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
